--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Egf-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Egf-Erbb2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.06368266666666667</v>
+        <v>0.041452</v>
       </c>
       <c r="H2">
-        <v>0.191048</v>
+        <v>0.124356</v>
       </c>
       <c r="I2">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
       <c r="J2">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.179771666666667</v>
+        <v>1.572065666666667</v>
       </c>
       <c r="N2">
-        <v>6.539315</v>
+        <v>4.716197</v>
       </c>
       <c r="O2">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834306</v>
       </c>
       <c r="P2">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834305</v>
       </c>
       <c r="Q2">
-        <v>0.1388136724577778</v>
+        <v>0.06516526601466667</v>
       </c>
       <c r="R2">
-        <v>1.24932305212</v>
+        <v>0.586487394132</v>
       </c>
       <c r="S2">
-        <v>0.01873935950845819</v>
+        <v>0.00957239051312077</v>
       </c>
       <c r="T2">
-        <v>0.01873935950845819</v>
+        <v>0.009572390513120766</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.06368266666666667</v>
+        <v>0.041452</v>
       </c>
       <c r="H3">
-        <v>0.191048</v>
+        <v>0.124356</v>
       </c>
       <c r="I3">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
       <c r="J3">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.713403</v>
       </c>
       <c r="O3">
-        <v>0.4567402255103586</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="P3">
-        <v>0.4567402255103585</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="Q3">
-        <v>0.2698744684826667</v>
+        <v>0.175665327052</v>
       </c>
       <c r="R3">
-        <v>2.428870216344</v>
+        <v>1.580987943468</v>
       </c>
       <c r="S3">
-        <v>0.03643210785730782</v>
+        <v>0.02580419313838695</v>
       </c>
       <c r="T3">
-        <v>0.03643210785730782</v>
+        <v>0.02580419313838695</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.06368266666666667</v>
+        <v>0.041452</v>
       </c>
       <c r="H4">
-        <v>0.191048</v>
+        <v>0.124356</v>
       </c>
       <c r="I4">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
       <c r="J4">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.860789</v>
+        <v>3.123785</v>
       </c>
       <c r="N4">
-        <v>8.582367000000001</v>
+        <v>9.371354999999999</v>
       </c>
       <c r="O4">
-        <v>0.3083291105451987</v>
+        <v>0.3496649652969456</v>
       </c>
       <c r="P4">
-        <v>0.3083291105451986</v>
+        <v>0.3496649652969455</v>
       </c>
       <c r="Q4">
-        <v>0.1821826722906667</v>
+        <v>0.12948713582</v>
       </c>
       <c r="R4">
-        <v>1.639644050616</v>
+        <v>1.16538422238</v>
       </c>
       <c r="S4">
-        <v>0.0245940225614652</v>
+        <v>0.01902089113264074</v>
       </c>
       <c r="T4">
-        <v>0.0245940225614652</v>
+        <v>0.01902089113264074</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1.189831</v>
       </c>
       <c r="I5">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143857</v>
       </c>
       <c r="J5">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143856</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.179771666666667</v>
+        <v>1.572065666666667</v>
       </c>
       <c r="N5">
-        <v>6.539315</v>
+        <v>4.716197</v>
       </c>
       <c r="O5">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834306</v>
       </c>
       <c r="P5">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834305</v>
       </c>
       <c r="Q5">
-        <v>0.8645199673072224</v>
+        <v>0.6234974880785557</v>
       </c>
       <c r="R5">
-        <v>7.780679705765001</v>
+        <v>5.611477392707001</v>
       </c>
       <c r="S5">
-        <v>0.1167071671166844</v>
+        <v>0.09158807758867284</v>
       </c>
       <c r="T5">
-        <v>0.1167071671166844</v>
+        <v>0.09158807758867279</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.189831</v>
       </c>
       <c r="I6">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143857</v>
       </c>
       <c r="J6">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143856</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>12.713403</v>
       </c>
       <c r="O6">
-        <v>0.4567402255103586</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="P6">
-        <v>0.4567402255103585</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="Q6">
         <v>1.680755667210333</v>
@@ -818,10 +818,10 @@
         <v>15.126801004893</v>
       </c>
       <c r="S6">
-        <v>0.2268961272767494</v>
+        <v>0.2468930242693564</v>
       </c>
       <c r="T6">
-        <v>0.2268961272767494</v>
+        <v>0.2468930242693564</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.189831</v>
       </c>
       <c r="I7">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143857</v>
       </c>
       <c r="J7">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143856</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.860789</v>
+        <v>3.123785</v>
       </c>
       <c r="N7">
-        <v>8.582367000000001</v>
+        <v>9.371354999999999</v>
       </c>
       <c r="O7">
-        <v>0.3083291105451987</v>
+        <v>0.3496649652969456</v>
       </c>
       <c r="P7">
-        <v>0.3083291105451986</v>
+        <v>0.3496649652969455</v>
       </c>
       <c r="Q7">
-        <v>1.134618478886334</v>
+        <v>1.238925410111667</v>
       </c>
       <c r="R7">
-        <v>10.211566309977</v>
+        <v>11.150328691005</v>
       </c>
       <c r="S7">
-        <v>0.1531695200071747</v>
+        <v>0.1819907838563565</v>
       </c>
       <c r="T7">
-        <v>0.1531695200071747</v>
+        <v>0.1819907838563564</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3380806666666667</v>
+        <v>0.3239583333333333</v>
       </c>
       <c r="H8">
-        <v>1.014242</v>
+        <v>0.971875</v>
       </c>
       <c r="I8">
-        <v>0.4234616956721602</v>
+        <v>0.4251306395014658</v>
       </c>
       <c r="J8">
-        <v>0.4234616956721601</v>
+        <v>0.4251306395014658</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.179771666666667</v>
+        <v>1.572065666666667</v>
       </c>
       <c r="N8">
-        <v>6.539315</v>
+        <v>4.716197</v>
       </c>
       <c r="O8">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834306</v>
       </c>
       <c r="P8">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834305</v>
       </c>
       <c r="Q8">
-        <v>0.7369386582477779</v>
+        <v>0.509283773263889</v>
       </c>
       <c r="R8">
-        <v>6.632447924230001</v>
+        <v>4.583553959375</v>
       </c>
       <c r="S8">
-        <v>0.09948413731930017</v>
+        <v>0.07481076128163698</v>
       </c>
       <c r="T8">
-        <v>0.09948413731930014</v>
+        <v>0.07481076128163695</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3380806666666667</v>
+        <v>0.3239583333333333</v>
       </c>
       <c r="H9">
-        <v>1.014242</v>
+        <v>0.971875</v>
       </c>
       <c r="I9">
-        <v>0.4234616956721602</v>
+        <v>0.4251306395014658</v>
       </c>
       <c r="J9">
-        <v>0.4234616956721601</v>
+        <v>0.4251306395014658</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>12.713403</v>
       </c>
       <c r="O9">
-        <v>0.4567402255103586</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="P9">
-        <v>0.4567402255103585</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="Q9">
-        <v>1.432718587280667</v>
+        <v>1.372870948958334</v>
       </c>
       <c r="R9">
-        <v>12.894467285526</v>
+        <v>12.355838540625</v>
       </c>
       <c r="S9">
-        <v>0.1934119903763013</v>
+        <v>0.2016665879118806</v>
       </c>
       <c r="T9">
-        <v>0.1934119903763012</v>
+        <v>0.2016665879118805</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3380806666666667</v>
+        <v>0.3239583333333333</v>
       </c>
       <c r="H10">
-        <v>1.014242</v>
+        <v>0.971875</v>
       </c>
       <c r="I10">
-        <v>0.4234616956721602</v>
+        <v>0.4251306395014658</v>
       </c>
       <c r="J10">
-        <v>0.4234616956721601</v>
+        <v>0.4251306395014658</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.860789</v>
+        <v>3.123785</v>
       </c>
       <c r="N10">
-        <v>8.582367000000001</v>
+        <v>9.371354999999999</v>
       </c>
       <c r="O10">
-        <v>0.3083291105451987</v>
+        <v>0.3496649652969456</v>
       </c>
       <c r="P10">
-        <v>0.3083291105451986</v>
+        <v>0.3496649652969455</v>
       </c>
       <c r="Q10">
-        <v>0.9671774523126669</v>
+        <v>1.011976182291667</v>
       </c>
       <c r="R10">
-        <v>8.704597070814001</v>
+        <v>9.107785640625</v>
       </c>
       <c r="S10">
-        <v>0.1305655679765588</v>
+        <v>0.1486532903079483</v>
       </c>
       <c r="T10">
-        <v>0.1305655679765587</v>
+        <v>0.1486532903079483</v>
       </c>
     </row>
   </sheetData>
